--- a/scr/data/20241215_finish_batch3.xlsx
+++ b/scr/data/20241215_finish_batch3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thuduong\Learning\test_cutting_stock_optima\scr\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D5C7001-98D3-40C7-9FE1-E709770ADD25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0CF1CB8-A872-425E-9261-509BA34EAE67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15990" xr2:uid="{97E9A37B-168E-4DB2-9422-951A4AE0FE8F}"/>
   </bookViews>
@@ -1897,12 +1897,10 @@
   </cellStyles>
   <dxfs count="3">
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
       <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF6699"/>
+          <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2236,7 +2234,7 @@
   <dimension ref="A1:V554"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2544,7 +2542,7 @@
         <v>530</v>
       </c>
       <c r="Q5" s="6" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="R5" s="10"/>
       <c r="S5" s="10"/>
@@ -2660,7 +2658,7 @@
         <v>530</v>
       </c>
       <c r="Q7" s="6" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="R7" s="10"/>
       <c r="S7" s="10"/>
@@ -2718,7 +2716,7 @@
         <v>530</v>
       </c>
       <c r="Q8" s="6" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="R8" s="10"/>
       <c r="S8" s="10"/>
@@ -2776,7 +2774,7 @@
         <v>530</v>
       </c>
       <c r="Q9" s="6" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="R9" s="10"/>
       <c r="S9" s="10"/>
@@ -2834,7 +2832,7 @@
         <v>530</v>
       </c>
       <c r="Q10" s="6" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="R10" s="10"/>
       <c r="S10" s="10"/>
@@ -2950,7 +2948,7 @@
         <v>530</v>
       </c>
       <c r="Q12" s="6" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="R12" s="10"/>
       <c r="S12" s="10"/>
@@ -3298,7 +3296,7 @@
         <v>530</v>
       </c>
       <c r="Q18" s="6" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="R18" s="10"/>
       <c r="S18" s="10"/>
@@ -3704,7 +3702,7 @@
         <v>530</v>
       </c>
       <c r="Q25" s="6" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="R25" s="10"/>
       <c r="S25" s="10"/>
@@ -3820,7 +3818,7 @@
         <v>530</v>
       </c>
       <c r="Q27" s="6" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="R27" s="10"/>
       <c r="S27" s="10"/>
@@ -3878,7 +3876,7 @@
         <v>530</v>
       </c>
       <c r="Q28" s="6" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="R28" s="10"/>
       <c r="S28" s="10"/>
@@ -3936,7 +3934,7 @@
         <v>530</v>
       </c>
       <c r="Q29" s="6" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="R29" s="10"/>
       <c r="S29" s="10"/>
@@ -4110,7 +4108,7 @@
         <v>530</v>
       </c>
       <c r="Q32" s="6" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="R32" s="10"/>
       <c r="S32" s="10"/>
@@ -4168,7 +4166,7 @@
         <v>530</v>
       </c>
       <c r="Q33" s="6" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="R33" s="10"/>
       <c r="S33" s="10"/>
@@ -4226,7 +4224,7 @@
         <v>530</v>
       </c>
       <c r="Q34" s="6" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="R34" s="10"/>
       <c r="S34" s="10"/>
@@ -4284,7 +4282,7 @@
         <v>530</v>
       </c>
       <c r="Q35" s="6" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="R35" s="10"/>
       <c r="S35" s="10"/>
@@ -4574,7 +4572,7 @@
         <v>530</v>
       </c>
       <c r="Q40" s="6" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="R40" s="10"/>
       <c r="S40" s="10"/>
@@ -5982,7 +5980,7 @@
         <v>530</v>
       </c>
       <c r="Q63" s="6" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="R63" s="10"/>
       <c r="S63" s="10">
@@ -6052,7 +6050,7 @@
         <v>615.25840853158331</v>
       </c>
     </row>
-    <row r="65" spans="1:20">
+    <row r="65" spans="1:21">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -6102,7 +6100,7 @@
         <v>530</v>
       </c>
       <c r="Q65" s="6" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="R65" s="10"/>
       <c r="S65" s="10">
@@ -6112,7 +6110,7 @@
         <v>9376.923076923078</v>
       </c>
     </row>
-    <row r="66" spans="1:20">
+    <row r="66" spans="1:21">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -6172,7 +6170,7 @@
         <v>664.47908121411001</v>
       </c>
     </row>
-    <row r="67" spans="1:20">
+    <row r="67" spans="1:21">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -6222,7 +6220,7 @@
         <v>530</v>
       </c>
       <c r="Q67" s="6" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="R67" s="10"/>
       <c r="S67" s="10">
@@ -6232,7 +6230,7 @@
         <v>4481.6176470588234</v>
       </c>
     </row>
-    <row r="68" spans="1:20">
+    <row r="68" spans="1:21">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -6292,7 +6290,7 @@
         <v>2522.0689655172414</v>
       </c>
     </row>
-    <row r="69" spans="1:20">
+    <row r="69" spans="1:21">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -6352,7 +6350,7 @@
         <v>723.543888433142</v>
       </c>
     </row>
-    <row r="70" spans="1:20">
+    <row r="70" spans="1:21">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -6412,7 +6410,7 @@
         <v>812.66666666666663</v>
       </c>
     </row>
-    <row r="71" spans="1:20">
+    <row r="71" spans="1:21">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -6472,7 +6470,7 @@
         <v>757.99835931091059</v>
       </c>
     </row>
-    <row r="72" spans="1:20">
+    <row r="72" spans="1:21">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -6532,7 +6530,7 @@
         <v>761.875</v>
       </c>
     </row>
-    <row r="73" spans="1:20">
+    <row r="73" spans="1:21">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -6592,7 +6590,7 @@
         <v>861.36177194421668</v>
       </c>
     </row>
-    <row r="74" spans="1:20">
+    <row r="74" spans="1:21">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -6651,8 +6649,12 @@
       <c r="T74" s="11">
         <v>2834.8837209302328</v>
       </c>
-    </row>
-    <row r="75" spans="1:20">
+      <c r="U74">
+        <f>T74*G74/1219</f>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="75" spans="1:21">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -6712,7 +6714,7 @@
         <v>216.57095980311732</v>
       </c>
     </row>
-    <row r="76" spans="1:20">
+    <row r="76" spans="1:21">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -6772,7 +6774,7 @@
         <v>280.55783429040201</v>
       </c>
     </row>
-    <row r="77" spans="1:20">
+    <row r="77" spans="1:21">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -6832,7 +6834,7 @@
         <v>2031.6666666666667</v>
       </c>
     </row>
-    <row r="78" spans="1:20">
+    <row r="78" spans="1:21">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -6892,7 +6894,7 @@
         <v>319.9343724364233</v>
       </c>
     </row>
-    <row r="79" spans="1:20">
+    <row r="79" spans="1:21">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -6952,7 +6954,7 @@
         <v>329.77850697292865</v>
       </c>
     </row>
-    <row r="80" spans="1:20">
+    <row r="80" spans="1:21">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -7062,7 +7064,7 @@
         <v>530</v>
       </c>
       <c r="Q81" s="6" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="R81" s="10"/>
       <c r="S81" s="10">
@@ -7302,7 +7304,7 @@
         <v>530</v>
       </c>
       <c r="Q85" s="6" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="R85" s="10"/>
       <c r="S85" s="10">
@@ -7662,7 +7664,7 @@
         <v>530</v>
       </c>
       <c r="Q91" s="6" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="R91" s="10"/>
       <c r="S91" s="10"/>
@@ -7720,7 +7722,7 @@
         <v>530</v>
       </c>
       <c r="Q92" s="6" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="R92" s="10"/>
       <c r="S92" s="10"/>
@@ -7778,7 +7780,7 @@
         <v>530</v>
       </c>
       <c r="Q93" s="6" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="R93" s="10"/>
       <c r="S93" s="10"/>
@@ -7836,7 +7838,7 @@
         <v>530</v>
       </c>
       <c r="Q94" s="6" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="R94" s="10"/>
       <c r="S94" s="10"/>
@@ -7894,7 +7896,7 @@
         <v>530</v>
       </c>
       <c r="Q95" s="6" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="R95" s="10"/>
       <c r="S95" s="10"/>
@@ -7952,7 +7954,7 @@
         <v>530</v>
       </c>
       <c r="Q96" s="6" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="R96" s="10"/>
       <c r="S96" s="10"/>
@@ -8010,7 +8012,7 @@
         <v>530</v>
       </c>
       <c r="Q97" s="6" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="R97" s="10"/>
       <c r="S97" s="10"/>
@@ -8068,7 +8070,7 @@
         <v>530</v>
       </c>
       <c r="Q98" s="6" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="R98" s="10"/>
       <c r="S98" s="10"/>
@@ -8126,7 +8128,7 @@
         <v>530</v>
       </c>
       <c r="Q99" s="6" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="R99" s="10"/>
       <c r="S99" s="10"/>
@@ -8184,7 +8186,7 @@
         <v>530</v>
       </c>
       <c r="Q100" s="6" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="R100" s="10"/>
       <c r="S100" s="10"/>
@@ -8242,7 +8244,7 @@
         <v>530</v>
       </c>
       <c r="Q101" s="6" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="R101" s="10"/>
       <c r="S101" s="10"/>
@@ -9722,7 +9724,7 @@
         <v>532</v>
       </c>
       <c r="Q125" s="6" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="R125" s="10"/>
       <c r="S125" s="10"/>
@@ -9778,7 +9780,7 @@
         <v>532</v>
       </c>
       <c r="Q126" s="6" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="R126" s="10"/>
       <c r="S126" s="10"/>
@@ -9946,7 +9948,7 @@
         <v>532</v>
       </c>
       <c r="Q129" s="6" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="R129" s="10"/>
       <c r="S129" s="10"/>
@@ -10058,7 +10060,7 @@
         <v>532</v>
       </c>
       <c r="Q131" s="6" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="R131" s="10"/>
       <c r="S131" s="10"/>
@@ -10114,7 +10116,7 @@
         <v>532</v>
       </c>
       <c r="Q132" s="6" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="R132" s="10"/>
       <c r="S132" s="10"/>
@@ -10226,7 +10228,7 @@
         <v>532</v>
       </c>
       <c r="Q134" s="6" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="R134" s="10"/>
       <c r="S134" s="10"/>
@@ -10282,7 +10284,7 @@
         <v>532</v>
       </c>
       <c r="Q135" s="6" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="R135" s="10"/>
       <c r="S135" s="10"/>
@@ -10338,7 +10340,7 @@
         <v>532</v>
       </c>
       <c r="Q136" s="6" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="R136" s="10"/>
       <c r="S136" s="10"/>
@@ -10394,7 +10396,7 @@
         <v>532</v>
       </c>
       <c r="Q137" s="6" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="R137" s="10"/>
       <c r="S137" s="10"/>
@@ -10450,7 +10452,7 @@
         <v>532</v>
       </c>
       <c r="Q138" s="6" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="R138" s="10"/>
       <c r="S138" s="10"/>
@@ -10506,7 +10508,7 @@
         <v>532</v>
       </c>
       <c r="Q139" s="6" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="R139" s="10"/>
       <c r="S139" s="10"/>
@@ -10674,7 +10676,7 @@
         <v>532</v>
       </c>
       <c r="Q142" s="6" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="R142" s="10"/>
       <c r="S142" s="10"/>
@@ -11248,7 +11250,7 @@
         <v>532</v>
       </c>
       <c r="Q152" s="6" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="R152" s="10"/>
       <c r="S152" s="10">
@@ -12292,7 +12294,7 @@
         <v>532</v>
       </c>
       <c r="Q170" s="6" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="R170" s="10"/>
       <c r="S170" s="10">
@@ -12640,7 +12642,7 @@
         <v>532</v>
       </c>
       <c r="Q176" s="6" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="R176" s="10"/>
       <c r="S176" s="10">
@@ -12698,7 +12700,7 @@
         <v>532</v>
       </c>
       <c r="Q177" s="6" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="R177" s="10"/>
       <c r="S177" s="10">
@@ -13048,7 +13050,7 @@
         <v>532</v>
       </c>
       <c r="Q183" s="6" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="R183" s="10"/>
       <c r="S183" s="10"/>
@@ -13106,7 +13108,7 @@
         <v>532</v>
       </c>
       <c r="Q184" s="6" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="R184" s="10"/>
       <c r="S184" s="10"/>
@@ -13280,7 +13282,7 @@
         <v>532</v>
       </c>
       <c r="Q187" s="6" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="R187" s="10"/>
       <c r="S187" s="10"/>
@@ -13338,7 +13340,7 @@
         <v>532</v>
       </c>
       <c r="Q188" s="6" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="R188" s="10"/>
       <c r="S188" s="10"/>
@@ -13396,7 +13398,7 @@
         <v>532</v>
       </c>
       <c r="Q189" s="6" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="R189" s="10"/>
       <c r="S189" s="10"/>
@@ -13512,7 +13514,7 @@
         <v>532</v>
       </c>
       <c r="Q191" s="6" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="R191" s="10"/>
       <c r="S191" s="10"/>
@@ -13570,7 +13572,7 @@
         <v>532</v>
       </c>
       <c r="Q192" s="6" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="R192" s="10"/>
       <c r="S192" s="10"/>
@@ -13628,7 +13630,7 @@
         <v>532</v>
       </c>
       <c r="Q193" s="6" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="R193" s="10"/>
       <c r="S193" s="10"/>
@@ -13918,7 +13920,7 @@
         <v>532</v>
       </c>
       <c r="Q198" s="6" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="R198" s="10"/>
       <c r="S198" s="10"/>
@@ -13976,7 +13978,7 @@
         <v>532</v>
       </c>
       <c r="Q199" s="6" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="R199" s="10"/>
       <c r="S199" s="10"/>
@@ -14150,7 +14152,7 @@
         <v>532</v>
       </c>
       <c r="Q202" s="6" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="R202" s="10"/>
       <c r="S202" s="10"/>
@@ -14266,7 +14268,7 @@
         <v>532</v>
       </c>
       <c r="Q204" s="6" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="R204" s="10"/>
       <c r="S204" s="10"/>
@@ -14382,7 +14384,7 @@
         <v>532</v>
       </c>
       <c r="Q206" s="6" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="R206" s="10"/>
       <c r="S206" s="10"/>
@@ -14440,7 +14442,7 @@
         <v>532</v>
       </c>
       <c r="Q207" s="6" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="R207" s="10"/>
       <c r="S207" s="10"/>
@@ -14498,7 +14500,7 @@
         <v>532</v>
       </c>
       <c r="Q208" s="6" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="R208" s="10"/>
       <c r="S208" s="10"/>
@@ -14844,7 +14846,7 @@
         <v>530</v>
       </c>
       <c r="Q214" s="6" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="R214" s="10"/>
       <c r="S214" s="10">
@@ -14960,7 +14962,7 @@
         <v>530</v>
       </c>
       <c r="Q216" s="6" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="R216" s="10"/>
       <c r="S216" s="10">
@@ -15018,7 +15020,7 @@
         <v>530</v>
       </c>
       <c r="Q217" s="6" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="R217" s="10"/>
       <c r="S217" s="10">
@@ -15308,7 +15310,7 @@
         <v>530</v>
       </c>
       <c r="Q222" s="6" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="R222" s="10"/>
       <c r="S222" s="10">
@@ -16782,7 +16784,7 @@
         <v>530</v>
       </c>
       <c r="Q246" s="6" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="R246" s="10"/>
       <c r="S246" s="10"/>
@@ -17080,7 +17082,7 @@
         <v>530</v>
       </c>
       <c r="Q251" s="6" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="R251" s="10"/>
       <c r="S251" s="10"/>
@@ -17200,7 +17202,7 @@
         <v>530</v>
       </c>
       <c r="Q253" s="6" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="R253" s="10"/>
       <c r="S253" s="10">
@@ -17380,7 +17382,7 @@
         <v>530</v>
       </c>
       <c r="Q256" s="6" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="R256" s="10"/>
       <c r="S256" s="10">
@@ -17440,7 +17442,7 @@
         <v>530</v>
       </c>
       <c r="Q257" s="6" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="R257" s="10"/>
       <c r="S257" s="10">
@@ -17680,7 +17682,7 @@
         <v>530</v>
       </c>
       <c r="Q261" s="6" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="R261" s="10"/>
       <c r="S261" s="10">
@@ -17740,7 +17742,7 @@
         <v>530</v>
       </c>
       <c r="Q262" s="6" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="R262" s="10"/>
       <c r="S262" s="10">
@@ -17800,7 +17802,7 @@
         <v>530</v>
       </c>
       <c r="Q263" s="6" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="R263" s="10"/>
       <c r="S263" s="10">
@@ -17860,7 +17862,7 @@
         <v>530</v>
       </c>
       <c r="Q264" s="6" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="R264" s="10"/>
       <c r="S264" s="10">
@@ -19632,7 +19634,7 @@
         <v>530</v>
       </c>
       <c r="Q293" s="6" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="R293" s="10"/>
       <c r="S293" s="10">
@@ -19752,7 +19754,7 @@
         <v>530</v>
       </c>
       <c r="Q295" s="6" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="R295" s="10"/>
       <c r="S295" s="10">
@@ -19872,7 +19874,7 @@
         <v>530</v>
       </c>
       <c r="Q297" s="6" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="R297" s="10"/>
       <c r="S297" s="10">
@@ -19992,7 +19994,7 @@
         <v>530</v>
       </c>
       <c r="Q299" s="6" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="R299" s="10"/>
       <c r="S299" s="10">
@@ -20112,7 +20114,7 @@
         <v>530</v>
       </c>
       <c r="Q301" s="6" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="R301" s="10"/>
       <c r="S301" s="10">
@@ -20292,7 +20294,7 @@
         <v>530</v>
       </c>
       <c r="Q304" s="6" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="R304" s="10"/>
       <c r="S304" s="10">
@@ -20352,7 +20354,7 @@
         <v>530</v>
       </c>
       <c r="Q305" s="6" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="R305" s="10"/>
       <c r="S305" s="10">
@@ -20472,7 +20474,7 @@
         <v>530</v>
       </c>
       <c r="Q307" s="6" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="R307" s="10"/>
       <c r="S307" s="10">
@@ -20532,7 +20534,7 @@
         <v>530</v>
       </c>
       <c r="Q308" s="6" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="R308" s="10"/>
       <c r="S308" s="10">
@@ -20652,7 +20654,7 @@
         <v>530</v>
       </c>
       <c r="Q310" s="6" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="R310" s="10"/>
       <c r="S310" s="10">
@@ -20712,7 +20714,7 @@
         <v>530</v>
       </c>
       <c r="Q311" s="6" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="R311" s="10"/>
       <c r="S311" s="10">
@@ -22690,7 +22692,7 @@
         <v>530</v>
       </c>
       <c r="Q343" s="6" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="R343" s="10"/>
       <c r="S343" s="10"/>
@@ -22864,7 +22866,7 @@
         <v>530</v>
       </c>
       <c r="Q346" s="6" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="R346" s="10"/>
       <c r="S346" s="10"/>
@@ -22922,7 +22924,7 @@
         <v>530</v>
       </c>
       <c r="Q347" s="6" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="R347" s="10"/>
       <c r="S347" s="10"/>
@@ -22980,7 +22982,7 @@
         <v>530</v>
       </c>
       <c r="Q348" s="6" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="R348" s="10"/>
       <c r="S348" s="10"/>
@@ -23038,7 +23040,7 @@
         <v>530</v>
       </c>
       <c r="Q349" s="6" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="R349" s="10"/>
       <c r="S349" s="10"/>
@@ -23328,7 +23330,7 @@
         <v>530</v>
       </c>
       <c r="Q354" s="6" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="R354" s="10"/>
       <c r="S354" s="10"/>
@@ -23444,7 +23446,7 @@
         <v>530</v>
       </c>
       <c r="Q356" s="6" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="R356" s="10"/>
       <c r="S356" s="10"/>
@@ -23560,7 +23562,7 @@
         <v>530</v>
       </c>
       <c r="Q358" s="6" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="R358" s="10"/>
       <c r="S358" s="10"/>
@@ -23618,7 +23620,7 @@
         <v>530</v>
       </c>
       <c r="Q359" s="6" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="R359" s="10"/>
       <c r="S359" s="10"/>
@@ -23734,7 +23736,7 @@
         <v>530</v>
       </c>
       <c r="Q361" s="6" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="R361" s="10"/>
       <c r="S361" s="10"/>
@@ -23908,7 +23910,7 @@
         <v>530</v>
       </c>
       <c r="Q364" s="6" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="R364" s="10"/>
       <c r="S364" s="10"/>
@@ -24198,7 +24200,7 @@
         <v>530</v>
       </c>
       <c r="Q369" s="6" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="R369" s="10"/>
       <c r="S369" s="10"/>
@@ -24256,7 +24258,7 @@
         <v>530</v>
       </c>
       <c r="Q370" s="6" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="R370" s="10"/>
       <c r="S370" s="10"/>
@@ -24314,7 +24316,7 @@
         <v>530</v>
       </c>
       <c r="Q371" s="6" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="R371" s="10"/>
       <c r="S371" s="10"/>
@@ -24546,7 +24548,7 @@
         <v>530</v>
       </c>
       <c r="Q375" s="6" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="R375" s="10"/>
       <c r="S375" s="10"/>
@@ -24604,7 +24606,7 @@
         <v>529</v>
       </c>
       <c r="Q376" s="6" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="R376" s="10"/>
       <c r="S376" s="10"/>
@@ -24662,7 +24664,7 @@
         <v>529</v>
       </c>
       <c r="Q377" s="6" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="R377" s="10"/>
       <c r="S377" s="10"/>
@@ -24720,7 +24722,7 @@
         <v>529</v>
       </c>
       <c r="Q378" s="6" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="R378" s="10"/>
       <c r="S378" s="10"/>
@@ -25358,7 +25360,7 @@
         <v>529</v>
       </c>
       <c r="Q389" s="6" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="R389" s="10"/>
       <c r="S389" s="10"/>
@@ -25416,7 +25418,7 @@
         <v>529</v>
       </c>
       <c r="Q390" s="6" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="R390" s="10"/>
       <c r="S390" s="10"/>
@@ -25474,7 +25476,7 @@
         <v>529</v>
       </c>
       <c r="Q391" s="6" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="R391" s="10"/>
       <c r="S391" s="10"/>
@@ -25532,7 +25534,7 @@
         <v>529</v>
       </c>
       <c r="Q392" s="6" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="R392" s="10"/>
       <c r="S392" s="10"/>
@@ -25590,7 +25592,7 @@
         <v>529</v>
       </c>
       <c r="Q393" s="6" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="R393" s="10"/>
       <c r="S393" s="10"/>
@@ -25764,7 +25766,7 @@
         <v>529</v>
       </c>
       <c r="Q396" s="6" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="R396" s="10"/>
       <c r="S396" s="10"/>
@@ -25996,7 +25998,7 @@
         <v>530</v>
       </c>
       <c r="Q400" s="6" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="R400" s="10"/>
       <c r="S400" s="10"/>
@@ -34300,7 +34302,7 @@
         <v>530</v>
       </c>
       <c r="Q534" s="6" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="R534" s="10"/>
       <c r="S534" s="10">
@@ -34480,7 +34482,7 @@
         <v>530</v>
       </c>
       <c r="Q537" s="6" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="R537" s="10"/>
       <c r="S537" s="10">
@@ -34600,7 +34602,7 @@
         <v>530</v>
       </c>
       <c r="Q539" s="6" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="R539" s="10"/>
       <c r="S539" s="10">
@@ -34900,7 +34902,7 @@
         <v>530</v>
       </c>
       <c r="Q544" s="6" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="R544" s="10"/>
       <c r="S544" s="10"/>
@@ -35074,7 +35076,7 @@
         <v>530</v>
       </c>
       <c r="Q547" s="6" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="R547" s="10"/>
       <c r="S547" s="10"/>
@@ -35132,7 +35134,7 @@
         <v>530</v>
       </c>
       <c r="Q548" s="6" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="R548" s="10"/>
       <c r="S548" s="10"/>
@@ -35190,7 +35192,7 @@
         <v>530</v>
       </c>
       <c r="Q549" s="6" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="R549" s="10"/>
       <c r="S549" s="10"/>
@@ -35248,7 +35250,7 @@
         <v>530</v>
       </c>
       <c r="Q550" s="6" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="R550" s="10"/>
       <c r="S550" s="10"/>
@@ -35306,7 +35308,7 @@
         <v>530</v>
       </c>
       <c r="Q551" s="6" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="R551" s="10"/>
       <c r="S551" s="10"/>
@@ -35480,7 +35482,7 @@
         <v>530</v>
       </c>
       <c r="Q554" s="6" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="R554" s="10"/>
       <c r="S554" s="10">

--- a/scr/data/20241215_finish_batch3.xlsx
+++ b/scr/data/20241215_finish_batch3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thuduong\Learning\test_cutting_stock_optima\scr\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0CF1CB8-A872-425E-9261-509BA34EAE67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6F9912F-2C03-41B1-A875-CF9E5B2286B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15990" xr2:uid="{97E9A37B-168E-4DB2-9422-951A4AE0FE8F}"/>
   </bookViews>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4998" uniqueCount="555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4998" uniqueCount="554">
   <si>
     <t>customer_name</t>
   </si>
@@ -1723,9 +1723,6 @@
   </si>
   <si>
     <t>small</t>
-  </si>
-  <si>
-    <t>small-medium</t>
   </si>
   <si>
     <t>standard</t>
@@ -1863,7 +1860,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1882,6 +1879,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Comma" xfId="9" builtinId="3"/>
@@ -2234,7 +2232,7 @@
   <dimension ref="A1:V554"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2304,7 +2302,7 @@
         <v>548</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="R1" s="6" t="s">
         <v>533</v>
@@ -2313,7 +2311,7 @@
         <v>534</v>
       </c>
       <c r="T1" s="6" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="U1" s="6"/>
       <c r="V1" s="6"/>
@@ -4630,7 +4628,7 @@
         <v>530</v>
       </c>
       <c r="Q41" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R41" s="10">
         <v>246</v>
@@ -4692,7 +4690,7 @@
         <v>530</v>
       </c>
       <c r="Q42" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R42" s="10">
         <v>343</v>
@@ -4754,7 +4752,7 @@
         <v>530</v>
       </c>
       <c r="Q43" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R43" s="10">
         <v>222</v>
@@ -4816,7 +4814,7 @@
         <v>530</v>
       </c>
       <c r="Q44" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R44" s="10">
         <v>308</v>
@@ -4878,7 +4876,7 @@
         <v>530</v>
       </c>
       <c r="Q45" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R45" s="10">
         <v>419</v>
@@ -4940,7 +4938,7 @@
         <v>530</v>
       </c>
       <c r="Q46" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R46" s="10">
         <v>148</v>
@@ -5002,7 +5000,7 @@
         <v>530</v>
       </c>
       <c r="Q47" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R47" s="10">
         <v>352</v>
@@ -5064,7 +5062,7 @@
         <v>530</v>
       </c>
       <c r="Q48" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R48" s="10">
         <v>291</v>
@@ -5126,7 +5124,7 @@
         <v>530</v>
       </c>
       <c r="Q49" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R49" s="10">
         <v>377</v>
@@ -5188,7 +5186,7 @@
         <v>530</v>
       </c>
       <c r="Q50" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R50" s="10">
         <v>604</v>
@@ -5250,7 +5248,7 @@
         <v>530</v>
       </c>
       <c r="Q51" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R51" s="10">
         <v>209</v>
@@ -5312,7 +5310,7 @@
         <v>530</v>
       </c>
       <c r="Q52" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R52" s="10">
         <v>100</v>
@@ -8302,7 +8300,7 @@
         <v>530</v>
       </c>
       <c r="Q102" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R102" s="10">
         <v>100</v>
@@ -8798,7 +8796,7 @@
         <v>530</v>
       </c>
       <c r="Q110" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R110" s="10">
         <v>100</v>
@@ -8860,7 +8858,7 @@
         <v>530</v>
       </c>
       <c r="Q111" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R111" s="10">
         <v>100</v>
@@ -8922,7 +8920,7 @@
         <v>530</v>
       </c>
       <c r="Q112" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R112" s="10">
         <v>100</v>
@@ -9170,7 +9168,7 @@
         <v>532</v>
       </c>
       <c r="Q116" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R116" s="10">
         <v>190</v>
@@ -9232,7 +9230,7 @@
         <v>532</v>
       </c>
       <c r="Q117" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R117" s="10">
         <v>256</v>
@@ -9294,7 +9292,7 @@
         <v>532</v>
       </c>
       <c r="Q118" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R118" s="10">
         <v>301</v>
@@ -9356,7 +9354,7 @@
         <v>532</v>
       </c>
       <c r="Q119" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R119" s="10">
         <v>278</v>
@@ -9418,7 +9416,7 @@
         <v>532</v>
       </c>
       <c r="Q120" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R120" s="10">
         <v>382</v>
@@ -9480,7 +9478,7 @@
         <v>532</v>
       </c>
       <c r="Q121" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R121" s="10">
         <v>197</v>
@@ -9542,7 +9540,7 @@
         <v>532</v>
       </c>
       <c r="Q122" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R122" s="10">
         <v>333</v>
@@ -9604,7 +9602,7 @@
         <v>532</v>
       </c>
       <c r="Q123" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R123" s="10">
         <v>239</v>
@@ -9664,7 +9662,7 @@
         <v>529</v>
       </c>
       <c r="Q124" s="6" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="R124" s="10">
         <v>400</v>
@@ -15432,7 +15430,7 @@
         <v>530</v>
       </c>
       <c r="Q224" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R224" s="10">
         <v>409</v>
@@ -15494,7 +15492,7 @@
         <v>530</v>
       </c>
       <c r="Q225" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R225" s="10">
         <v>370</v>
@@ -15556,7 +15554,7 @@
         <v>530</v>
       </c>
       <c r="Q226" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R226" s="10">
         <v>757</v>
@@ -15618,7 +15616,7 @@
         <v>530</v>
       </c>
       <c r="Q227" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R227" s="10">
         <v>451</v>
@@ -15680,7 +15678,7 @@
         <v>530</v>
       </c>
       <c r="Q228" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R228" s="10">
         <v>431</v>
@@ -15742,7 +15740,7 @@
         <v>530</v>
       </c>
       <c r="Q229" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R229" s="10">
         <v>296</v>
@@ -15804,7 +15802,7 @@
         <v>530</v>
       </c>
       <c r="Q230" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R230" s="10">
         <v>936</v>
@@ -15866,7 +15864,7 @@
         <v>530</v>
       </c>
       <c r="Q231" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R231" s="10">
         <v>190</v>
@@ -15928,7 +15926,7 @@
         <v>530</v>
       </c>
       <c r="Q232" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R232" s="10">
         <v>357</v>
@@ -15990,7 +15988,7 @@
         <v>530</v>
       </c>
       <c r="Q233" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R233" s="10">
         <v>389</v>
@@ -16052,7 +16050,7 @@
         <v>530</v>
       </c>
       <c r="Q234" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R234" s="10">
         <v>150</v>
@@ -16114,7 +16112,7 @@
         <v>530</v>
       </c>
       <c r="Q235" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R235" s="10">
         <v>300</v>
@@ -16170,7 +16168,7 @@
         <v>530</v>
       </c>
       <c r="Q236" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R236" s="10">
         <v>300</v>
@@ -16232,7 +16230,7 @@
         <v>530</v>
       </c>
       <c r="Q237" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R237" s="10">
         <v>150</v>
@@ -16356,7 +16354,7 @@
         <v>530</v>
       </c>
       <c r="Q239" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R239" s="10">
         <v>300</v>
@@ -16418,7 +16416,7 @@
         <v>530</v>
       </c>
       <c r="Q240" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R240" s="10">
         <v>300</v>
@@ -16480,7 +16478,7 @@
         <v>530</v>
       </c>
       <c r="Q241" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R241" s="10">
         <v>300</v>
@@ -16536,7 +16534,7 @@
         <v>530</v>
       </c>
       <c r="Q242" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R242" s="10">
         <v>100</v>
@@ -16660,7 +16658,7 @@
         <v>530</v>
       </c>
       <c r="Q244" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R244" s="10">
         <v>100</v>
@@ -16722,7 +16720,7 @@
         <v>530</v>
       </c>
       <c r="Q245" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R245" s="10">
         <v>200</v>
@@ -16900,7 +16898,7 @@
         <v>530</v>
       </c>
       <c r="Q248" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R248" s="10">
         <v>100</v>
@@ -16962,7 +16960,7 @@
         <v>530</v>
       </c>
       <c r="Q249" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R249" s="10">
         <v>100</v>
@@ -17140,7 +17138,7 @@
         <v>530</v>
       </c>
       <c r="Q252" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R252" s="10">
         <v>234</v>
@@ -18162,7 +18160,7 @@
         <v>532</v>
       </c>
       <c r="Q269" s="6" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="R269" s="10">
         <v>500</v>
@@ -18224,7 +18222,7 @@
         <v>532</v>
       </c>
       <c r="Q270" s="6" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R270" s="10">
         <v>500</v>
@@ -18286,7 +18284,7 @@
         <v>532</v>
       </c>
       <c r="Q271" s="6" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R271" s="10">
         <v>500</v>
@@ -18350,9 +18348,7 @@
       <c r="Q272" s="6" t="s">
         <v>549</v>
       </c>
-      <c r="R272" s="10">
-        <v>500</v>
-      </c>
+      <c r="R272" s="10"/>
       <c r="S272" s="10">
         <v>500</v>
       </c>
@@ -18412,9 +18408,7 @@
       <c r="Q273" s="6" t="s">
         <v>549</v>
       </c>
-      <c r="R273" s="10">
-        <v>500</v>
-      </c>
+      <c r="R273" s="10"/>
       <c r="S273" s="10">
         <v>500</v>
       </c>
@@ -18474,9 +18468,7 @@
       <c r="Q274" s="6" t="s">
         <v>549</v>
       </c>
-      <c r="R274" s="10">
-        <v>500</v>
-      </c>
+      <c r="R274" s="10"/>
       <c r="S274" s="10">
         <v>500</v>
       </c>
@@ -18534,7 +18526,7 @@
         <v>532</v>
       </c>
       <c r="Q275" s="6" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R275" s="10">
         <v>500</v>
@@ -18656,7 +18648,7 @@
         <v>532</v>
       </c>
       <c r="Q277" s="6" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="R277" s="10">
         <v>500</v>
@@ -18718,7 +18710,7 @@
         <v>532</v>
       </c>
       <c r="Q278" s="6" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="R278" s="10">
         <v>500</v>
@@ -18780,7 +18772,7 @@
         <v>532</v>
       </c>
       <c r="Q279" s="6" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="R279" s="10">
         <v>500</v>
@@ -18902,7 +18894,7 @@
         <v>532</v>
       </c>
       <c r="Q281" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R281" s="10">
         <v>500</v>
@@ -18964,7 +18956,7 @@
         <v>532</v>
       </c>
       <c r="Q282" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R282" s="10">
         <v>500</v>
@@ -19026,7 +19018,7 @@
         <v>532</v>
       </c>
       <c r="Q283" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R283" s="10">
         <v>500</v>
@@ -19088,7 +19080,7 @@
         <v>532</v>
       </c>
       <c r="Q284" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R284" s="10">
         <v>500</v>
@@ -19150,7 +19142,7 @@
         <v>532</v>
       </c>
       <c r="Q285" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R285" s="10">
         <v>500</v>
@@ -19514,9 +19506,7 @@
       <c r="Q291" s="6" t="s">
         <v>549</v>
       </c>
-      <c r="R291" s="10">
-        <v>500</v>
-      </c>
+      <c r="R291" s="10"/>
       <c r="S291" s="10">
         <v>500</v>
       </c>
@@ -20774,7 +20764,7 @@
         <v>530</v>
       </c>
       <c r="Q312" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R312" s="10">
         <v>244</v>
@@ -20836,7 +20826,7 @@
         <v>530</v>
       </c>
       <c r="Q313" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R313" s="10">
         <v>468</v>
@@ -20898,7 +20888,7 @@
         <v>530</v>
       </c>
       <c r="Q314" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R314" s="10">
         <v>412</v>
@@ -20960,7 +20950,7 @@
         <v>530</v>
       </c>
       <c r="Q315" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R315" s="10">
         <v>426</v>
@@ -21022,7 +21012,7 @@
         <v>530</v>
       </c>
       <c r="Q316" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R316" s="10">
         <v>621</v>
@@ -21084,7 +21074,7 @@
         <v>530</v>
       </c>
       <c r="Q317" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R317" s="10">
         <v>325</v>
@@ -21146,7 +21136,7 @@
         <v>530</v>
       </c>
       <c r="Q318" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R318" s="10">
         <v>172</v>
@@ -21208,7 +21198,7 @@
         <v>530</v>
       </c>
       <c r="Q319" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R319" s="10">
         <v>84</v>
@@ -21270,7 +21260,7 @@
         <v>530</v>
       </c>
       <c r="Q320" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R320" s="10">
         <v>535</v>
@@ -21332,7 +21322,7 @@
         <v>530</v>
       </c>
       <c r="Q321" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R321" s="10">
         <v>328</v>
@@ -21394,7 +21384,7 @@
         <v>530</v>
       </c>
       <c r="Q322" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R322" s="10">
         <v>463</v>
@@ -21456,7 +21446,7 @@
         <v>530</v>
       </c>
       <c r="Q323" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R323" s="10">
         <v>559</v>
@@ -21518,7 +21508,7 @@
         <v>530</v>
       </c>
       <c r="Q324" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R324" s="10">
         <v>318</v>
@@ -21580,7 +21570,7 @@
         <v>530</v>
       </c>
       <c r="Q325" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R325" s="10">
         <v>59</v>
@@ -21642,7 +21632,7 @@
         <v>530</v>
       </c>
       <c r="Q326" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R326" s="10">
         <v>209</v>
@@ -21704,7 +21694,7 @@
         <v>530</v>
       </c>
       <c r="Q327" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R327" s="10">
         <v>308</v>
@@ -21766,7 +21756,7 @@
         <v>530</v>
       </c>
       <c r="Q328" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R328" s="10">
         <v>345</v>
@@ -21828,7 +21818,7 @@
         <v>530</v>
       </c>
       <c r="Q329" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R329" s="10">
         <v>453</v>
@@ -21890,7 +21880,7 @@
         <v>530</v>
       </c>
       <c r="Q330" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R330" s="10">
         <v>586</v>
@@ -21952,7 +21942,7 @@
         <v>530</v>
       </c>
       <c r="Q331" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R331" s="10">
         <v>591</v>
@@ -22014,7 +22004,7 @@
         <v>530</v>
       </c>
       <c r="Q332" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R332" s="10">
         <v>776</v>
@@ -22076,7 +22066,7 @@
         <v>530</v>
       </c>
       <c r="Q333" s="6" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="R333" s="10">
         <v>520</v>
@@ -22138,7 +22128,7 @@
         <v>530</v>
       </c>
       <c r="Q334" s="6" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="R334" s="10">
         <v>428</v>
@@ -22200,7 +22190,7 @@
         <v>530</v>
       </c>
       <c r="Q335" s="6" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="R335" s="10">
         <v>421</v>
@@ -22262,7 +22252,7 @@
         <v>530</v>
       </c>
       <c r="Q336" s="6" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="R336" s="10">
         <v>499</v>
@@ -22324,7 +22314,7 @@
         <v>530</v>
       </c>
       <c r="Q337" s="6" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="R337" s="10">
         <v>478</v>
@@ -22386,7 +22376,7 @@
         <v>530</v>
       </c>
       <c r="Q338" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R338" s="10">
         <v>419</v>
@@ -22448,7 +22438,7 @@
         <v>530</v>
       </c>
       <c r="Q339" s="6" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R339" s="10">
         <v>360</v>
@@ -22510,7 +22500,7 @@
         <v>530</v>
       </c>
       <c r="Q340" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R340" s="10">
         <v>372</v>
@@ -22572,7 +22562,7 @@
         <v>530</v>
       </c>
       <c r="Q341" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R341" s="10">
         <v>283</v>
@@ -26056,7 +26046,7 @@
         <v>530</v>
       </c>
       <c r="Q401" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R401" s="10">
         <v>600</v>
@@ -26118,7 +26108,7 @@
         <v>529</v>
       </c>
       <c r="Q402" s="6" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="R402" s="10">
         <v>300</v>
@@ -26180,7 +26170,7 @@
         <v>529</v>
       </c>
       <c r="Q403" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R403" s="10">
         <v>150</v>
@@ -26242,7 +26232,7 @@
         <v>529</v>
       </c>
       <c r="Q404" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R404" s="10">
         <v>150</v>
@@ -26428,7 +26418,7 @@
         <v>529</v>
       </c>
       <c r="Q407" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R407" s="10">
         <v>800</v>
@@ -26552,7 +26542,7 @@
         <v>529</v>
       </c>
       <c r="Q409" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R409" s="10">
         <v>400</v>
@@ -26614,7 +26604,7 @@
         <v>529</v>
       </c>
       <c r="Q410" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R410" s="10">
         <v>300</v>
@@ -26800,7 +26790,7 @@
         <v>529</v>
       </c>
       <c r="Q413" s="6" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="R413" s="10">
         <v>800</v>
@@ -26998,7 +26988,7 @@
         <v>887.62135922330094</v>
       </c>
     </row>
-    <row r="417" spans="1:20">
+    <row r="417" spans="1:21">
       <c r="A417" s="1">
         <v>416</v>
       </c>
@@ -27048,7 +27038,7 @@
         <v>529</v>
       </c>
       <c r="Q417" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R417" s="10">
         <v>800</v>
@@ -27059,8 +27049,9 @@
       <c r="T417" s="11">
         <v>3458.1560283687945</v>
       </c>
-    </row>
-    <row r="418" spans="1:20">
+      <c r="U417" s="12"/>
+    </row>
+    <row r="418" spans="1:21">
       <c r="A418" s="1">
         <v>417</v>
       </c>
@@ -27110,7 +27101,7 @@
         <v>529</v>
       </c>
       <c r="Q418" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R418" s="10">
         <v>800</v>
@@ -27122,7 +27113,7 @@
         <v>3339.7260273972602</v>
       </c>
     </row>
-    <row r="419" spans="1:20">
+    <row r="419" spans="1:21">
       <c r="A419" s="1">
         <v>418</v>
       </c>
@@ -27172,7 +27163,7 @@
         <v>529</v>
       </c>
       <c r="Q419" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R419" s="10">
         <v>800</v>
@@ -27184,7 +27175,7 @@
         <v>3283.5016835016836</v>
       </c>
     </row>
-    <row r="420" spans="1:20">
+    <row r="420" spans="1:21">
       <c r="A420" s="1">
         <v>419</v>
       </c>
@@ -27234,7 +27225,7 @@
         <v>529</v>
       </c>
       <c r="Q420" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R420" s="10">
         <v>150</v>
@@ -27246,7 +27237,7 @@
         <v>2151.1764705882351</v>
       </c>
     </row>
-    <row r="421" spans="1:20">
+    <row r="421" spans="1:21">
       <c r="A421" s="1">
         <v>420</v>
       </c>
@@ -27296,7 +27287,7 @@
         <v>529</v>
       </c>
       <c r="Q421" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R421" s="10">
         <v>150</v>
@@ -27308,7 +27299,7 @@
         <v>1662.2727272727273</v>
       </c>
     </row>
-    <row r="422" spans="1:20">
+    <row r="422" spans="1:21">
       <c r="A422" s="1">
         <v>421</v>
       </c>
@@ -27358,7 +27349,7 @@
         <v>529</v>
       </c>
       <c r="Q422" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R422" s="10">
         <v>150</v>
@@ -27370,7 +27361,7 @@
         <v>1583.1168831168832</v>
       </c>
     </row>
-    <row r="423" spans="1:20">
+    <row r="423" spans="1:21">
       <c r="A423" s="1">
         <v>422</v>
       </c>
@@ -27420,7 +27411,7 @@
         <v>529</v>
       </c>
       <c r="Q423" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R423" s="10">
         <v>300</v>
@@ -27432,7 +27423,7 @@
         <v>3017.3267326732671</v>
       </c>
     </row>
-    <row r="424" spans="1:20">
+    <row r="424" spans="1:21">
       <c r="A424" s="1">
         <v>423</v>
       </c>
@@ -27482,7 +27473,7 @@
         <v>529</v>
       </c>
       <c r="Q424" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R424" s="10">
         <v>300</v>
@@ -27494,7 +27485,7 @@
         <v>2949.1935483870966</v>
       </c>
     </row>
-    <row r="425" spans="1:20">
+    <row r="425" spans="1:21">
       <c r="A425" s="1">
         <v>424</v>
       </c>
@@ -27556,7 +27547,7 @@
         <v>1354.4444444444443</v>
       </c>
     </row>
-    <row r="426" spans="1:20">
+    <row r="426" spans="1:21">
       <c r="A426" s="1">
         <v>425</v>
       </c>
@@ -27606,7 +27597,7 @@
         <v>529</v>
       </c>
       <c r="Q426" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R426" s="10">
         <v>300</v>
@@ -27618,7 +27609,7 @@
         <v>2669.3430656934306</v>
       </c>
     </row>
-    <row r="427" spans="1:20">
+    <row r="427" spans="1:21">
       <c r="A427" s="1">
         <v>426</v>
       </c>
@@ -27680,7 +27671,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="428" spans="1:20">
+    <row r="428" spans="1:21">
       <c r="A428" s="1">
         <v>427</v>
       </c>
@@ -27742,7 +27733,7 @@
         <v>1252.3972602739725</v>
       </c>
     </row>
-    <row r="429" spans="1:20">
+    <row r="429" spans="1:21">
       <c r="A429" s="1">
         <v>428</v>
       </c>
@@ -27792,7 +27783,7 @@
         <v>529</v>
       </c>
       <c r="Q429" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R429" s="10">
         <v>300</v>
@@ -27804,7 +27795,7 @@
         <v>2446.1538461538462</v>
       </c>
     </row>
-    <row r="430" spans="1:20">
+    <row r="430" spans="1:21">
       <c r="A430" s="1">
         <v>429</v>
       </c>
@@ -27866,7 +27857,7 @@
         <v>1114.939024390244</v>
       </c>
     </row>
-    <row r="431" spans="1:20">
+    <row r="431" spans="1:21">
       <c r="A431" s="1">
         <v>430</v>
       </c>
@@ -27928,7 +27919,7 @@
         <v>1063.0813953488373</v>
       </c>
     </row>
-    <row r="432" spans="1:20">
+    <row r="432" spans="1:21">
       <c r="A432" s="1">
         <v>431</v>
       </c>
@@ -28350,7 +28341,7 @@
         <v>529</v>
       </c>
       <c r="Q438" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R438" s="10">
         <v>750</v>
@@ -28412,7 +28403,7 @@
         <v>529</v>
       </c>
       <c r="Q439" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R439" s="10">
         <v>100</v>
@@ -28474,7 +28465,7 @@
         <v>529</v>
       </c>
       <c r="Q440" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R440" s="10">
         <v>100</v>
@@ -28536,7 +28527,7 @@
         <v>530</v>
       </c>
       <c r="Q441" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R441" s="10">
         <v>150</v>
@@ -28598,7 +28589,7 @@
         <v>530</v>
       </c>
       <c r="Q442" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R442" s="10">
         <v>300</v>
@@ -28660,7 +28651,7 @@
         <v>530</v>
       </c>
       <c r="Q443" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R443" s="10">
         <v>150</v>
@@ -28970,7 +28961,7 @@
         <v>530</v>
       </c>
       <c r="Q448" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R448" s="10">
         <v>100</v>
@@ -29032,7 +29023,7 @@
         <v>530</v>
       </c>
       <c r="Q449" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R449" s="10">
         <v>100</v>
@@ -29094,7 +29085,7 @@
         <v>530</v>
       </c>
       <c r="Q450" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R450" s="10">
         <v>100</v>
@@ -29218,7 +29209,7 @@
         <v>530</v>
       </c>
       <c r="Q452" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R452" s="10">
         <v>100</v>
@@ -29466,7 +29457,7 @@
         <v>530</v>
       </c>
       <c r="Q456" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R456" s="10">
         <v>100</v>
@@ -29776,7 +29767,7 @@
         <v>530</v>
       </c>
       <c r="Q461" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R461" s="10">
         <v>100</v>
@@ -29838,7 +29829,7 @@
         <v>530</v>
       </c>
       <c r="Q462" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R462" s="10">
         <v>100</v>
@@ -29900,7 +29891,7 @@
         <v>530</v>
       </c>
       <c r="Q463" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R463" s="10">
         <v>100</v>
@@ -30024,7 +30015,7 @@
         <v>530</v>
       </c>
       <c r="Q465" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R465" s="10">
         <v>100</v>
@@ -30086,7 +30077,7 @@
         <v>530</v>
       </c>
       <c r="Q466" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R466" s="10">
         <v>100</v>
@@ -30644,7 +30635,7 @@
         <v>530</v>
       </c>
       <c r="Q475" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R475" s="10">
         <v>100</v>
@@ -30706,7 +30697,7 @@
         <v>529</v>
       </c>
       <c r="Q476" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R476" s="10">
         <v>100</v>
@@ -30768,7 +30759,7 @@
         <v>529</v>
       </c>
       <c r="Q477" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R477" s="10">
         <v>100</v>
@@ -30830,7 +30821,7 @@
         <v>529</v>
       </c>
       <c r="Q478" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R478" s="10">
         <v>100</v>
@@ -30954,7 +30945,7 @@
         <v>530</v>
       </c>
       <c r="Q480" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R480" s="10">
         <v>100</v>
@@ -31016,7 +31007,7 @@
         <v>530</v>
       </c>
       <c r="Q481" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R481" s="10">
         <v>100</v>
@@ -31140,7 +31131,7 @@
         <v>530</v>
       </c>
       <c r="Q483" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R483" s="10">
         <v>50</v>
@@ -31202,7 +31193,7 @@
         <v>530</v>
       </c>
       <c r="Q484" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R484" s="10">
         <v>50</v>
@@ -31264,7 +31255,7 @@
         <v>530</v>
       </c>
       <c r="Q485" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R485" s="10">
         <v>100</v>
@@ -31326,7 +31317,7 @@
         <v>530</v>
       </c>
       <c r="Q486" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R486" s="10">
         <v>328</v>
@@ -31388,7 +31379,7 @@
         <v>530</v>
       </c>
       <c r="Q487" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R487" s="10">
         <v>370</v>
@@ -31450,7 +31441,7 @@
         <v>530</v>
       </c>
       <c r="Q488" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R488" s="10">
         <v>283</v>
@@ -31512,7 +31503,7 @@
         <v>530</v>
       </c>
       <c r="Q489" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R489" s="10">
         <v>209</v>
@@ -31574,7 +31565,7 @@
         <v>530</v>
       </c>
       <c r="Q490" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R490" s="10">
         <v>365</v>
@@ -31636,7 +31627,7 @@
         <v>530</v>
       </c>
       <c r="Q491" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R491" s="10">
         <v>382</v>
@@ -31698,7 +31689,7 @@
         <v>530</v>
       </c>
       <c r="Q492" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R492" s="10">
         <v>276</v>
@@ -31760,7 +31751,7 @@
         <v>530</v>
       </c>
       <c r="Q493" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R493" s="10">
         <v>372</v>
@@ -31822,7 +31813,7 @@
         <v>530</v>
       </c>
       <c r="Q494" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R494" s="10">
         <v>752</v>
@@ -31884,7 +31875,7 @@
         <v>532</v>
       </c>
       <c r="Q495" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R495" s="10">
         <v>106</v>
@@ -31946,7 +31937,7 @@
         <v>532</v>
       </c>
       <c r="Q496" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R496" s="10">
         <v>129</v>
@@ -32008,7 +31999,7 @@
         <v>532</v>
       </c>
       <c r="Q497" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R497" s="10">
         <v>192</v>
@@ -32070,7 +32061,7 @@
         <v>532</v>
       </c>
       <c r="Q498" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R498" s="10">
         <v>291</v>
@@ -32132,7 +32123,7 @@
         <v>532</v>
       </c>
       <c r="Q499" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R499" s="10">
         <v>306</v>
@@ -32194,7 +32185,7 @@
         <v>530</v>
       </c>
       <c r="Q500" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R500" s="10">
         <v>308</v>
@@ -32256,7 +32247,7 @@
         <v>532</v>
       </c>
       <c r="Q501" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R501" s="10">
         <v>377</v>
@@ -32318,7 +32309,7 @@
         <v>532</v>
       </c>
       <c r="Q502" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R502" s="10">
         <v>424</v>
@@ -32380,7 +32371,7 @@
         <v>532</v>
       </c>
       <c r="Q503" s="6" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="R503" s="10">
         <v>955</v>
@@ -32442,7 +32433,7 @@
         <v>532</v>
       </c>
       <c r="Q504" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R504" s="10">
         <v>431</v>
@@ -32504,7 +32495,7 @@
         <v>530</v>
       </c>
       <c r="Q505" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R505" s="10">
         <v>333</v>
@@ -32566,7 +32557,7 @@
         <v>530</v>
       </c>
       <c r="Q506" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R506" s="10">
         <v>463</v>
@@ -32628,7 +32619,7 @@
         <v>530</v>
       </c>
       <c r="Q507" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R507" s="10">
         <v>340</v>
@@ -32690,7 +32681,7 @@
         <v>530</v>
       </c>
       <c r="Q508" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R508" s="10">
         <v>503</v>
@@ -32752,7 +32743,7 @@
         <v>530</v>
       </c>
       <c r="Q509" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R509" s="10">
         <v>192</v>
@@ -32814,7 +32805,7 @@
         <v>530</v>
       </c>
       <c r="Q510" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R510" s="10">
         <v>163</v>
@@ -32876,7 +32867,7 @@
         <v>530</v>
       </c>
       <c r="Q511" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R511" s="10">
         <v>554</v>
@@ -32938,7 +32929,7 @@
         <v>530</v>
       </c>
       <c r="Q512" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R512" s="10">
         <v>448</v>
@@ -33000,7 +32991,7 @@
         <v>530</v>
       </c>
       <c r="Q513" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R513" s="10">
         <v>205</v>
@@ -33062,7 +33053,7 @@
         <v>530</v>
       </c>
       <c r="Q514" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R514" s="10">
         <v>426</v>
@@ -33124,7 +33115,7 @@
         <v>530</v>
       </c>
       <c r="Q515" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R515" s="10">
         <v>300</v>
@@ -33186,7 +33177,7 @@
         <v>530</v>
       </c>
       <c r="Q516" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R516" s="10">
         <v>567</v>
@@ -33248,7 +33239,7 @@
         <v>530</v>
       </c>
       <c r="Q517" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R517" s="10">
         <v>185</v>
@@ -33310,7 +33301,7 @@
         <v>530</v>
       </c>
       <c r="Q518" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R518" s="10">
         <v>207</v>
@@ -33372,7 +33363,7 @@
         <v>530</v>
       </c>
       <c r="Q519" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R519" s="10">
         <v>217</v>
@@ -33434,7 +33425,7 @@
         <v>530</v>
       </c>
       <c r="Q520" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R520" s="10">
         <v>234</v>
@@ -33496,7 +33487,7 @@
         <v>530</v>
       </c>
       <c r="Q521" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R521" s="10">
         <v>259</v>
@@ -33558,7 +33549,7 @@
         <v>530</v>
       </c>
       <c r="Q522" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R522" s="10">
         <v>407</v>
@@ -33620,7 +33611,7 @@
         <v>530</v>
       </c>
       <c r="Q523" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R523" s="10">
         <v>283</v>
@@ -33682,7 +33673,7 @@
         <v>530</v>
       </c>
       <c r="Q524" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R524" s="10">
         <v>266</v>
@@ -33744,7 +33735,7 @@
         <v>530</v>
       </c>
       <c r="Q525" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R525" s="10">
         <v>286</v>
@@ -33806,7 +33797,7 @@
         <v>530</v>
       </c>
       <c r="Q526" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R526" s="10">
         <v>296</v>
@@ -33868,7 +33859,7 @@
         <v>530</v>
       </c>
       <c r="Q527" s="6" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="R527" s="10">
         <v>759</v>
@@ -33930,7 +33921,7 @@
         <v>530</v>
       </c>
       <c r="Q528" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R528" s="10">
         <v>308</v>
@@ -33992,7 +33983,7 @@
         <v>530</v>
       </c>
       <c r="Q529" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R529" s="10">
         <v>505</v>
@@ -34054,7 +34045,7 @@
         <v>530</v>
       </c>
       <c r="Q530" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R530" s="10">
         <v>522</v>
@@ -34116,7 +34107,7 @@
         <v>530</v>
       </c>
       <c r="Q531" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R531" s="10">
         <v>481</v>
@@ -34178,7 +34169,7 @@
         <v>530</v>
       </c>
       <c r="Q532" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R532" s="10">
         <v>468</v>
@@ -34240,7 +34231,7 @@
         <v>530</v>
       </c>
       <c r="Q533" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R533" s="10">
         <v>611</v>
